--- a/data/output/best_policy_EV.xlsx
+++ b/data/output/best_policy_EV.xlsx
@@ -442,7 +442,7 @@
         <v>0.6</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D3">
         <v>0.9999999999999999</v>
@@ -474,7 +474,7 @@
         <v>0.6</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>0.7</v>
@@ -509,13 +509,13 @@
         <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
         <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.7999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G5">
         <v>0.9999999999999999</v>
@@ -544,7 +544,7 @@
         <v>0.6</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
         <v>0.7</v>
@@ -553,7 +553,7 @@
         <v>0.7</v>
       </c>
       <c r="H6">
-        <v>0.9999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I6">
         <v>0.9999999999999999</v>
@@ -579,7 +579,7 @@
         <v>0.6</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G7">
         <v>0.7</v>
@@ -588,7 +588,7 @@
         <v>0.7</v>
       </c>
       <c r="I7">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J7">
         <v>0.9999999999999999</v>
@@ -602,7 +602,7 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -623,7 +623,7 @@
         <v>0.7</v>
       </c>
       <c r="J8">
-        <v>0.7</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -637,7 +637,7 @@
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
         <v>0.6</v>
@@ -687,7 +687,7 @@
         <v>0.6</v>
       </c>
       <c r="J10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -704,7 +704,7 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
         <v>0.6</v>
@@ -739,7 +739,7 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G12">
         <v>0.6</v>
@@ -806,7 +806,7 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0.6</v>
@@ -906,31 +906,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1224.726729198519</v>
+        <v>1173.779237002497</v>
       </c>
       <c r="D3">
-        <v>1776.931440058498</v>
+        <v>1747.974064348761</v>
       </c>
       <c r="E3">
-        <v>2162.461010134587</v>
+        <v>2146.361108125143</v>
       </c>
       <c r="F3">
-        <v>2428.929769802461</v>
+        <v>2420.215053409636</v>
       </c>
       <c r="G3">
-        <v>2611.871828479658</v>
+        <v>2607.490035439573</v>
       </c>
       <c r="H3">
-        <v>2736.89223419293</v>
+        <v>2734.977895667399</v>
       </c>
       <c r="I3">
-        <v>2822.002261683043</v>
+        <v>2821.43348205399</v>
       </c>
       <c r="J3">
-        <v>2879.758302576949</v>
+        <v>2879.870665435533</v>
       </c>
       <c r="K3">
-        <v>2918.835125488797</v>
+        <v>2919.249500150951</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1806.48604704987</v>
+        <v>1708.167122620576</v>
       </c>
       <c r="D4">
-        <v>2724.128763058895</v>
+        <v>2619.58456736221</v>
       </c>
       <c r="E4">
-        <v>3455.699691764405</v>
+        <v>3384.53606615095</v>
       </c>
       <c r="F4">
-        <v>4058.074914446259</v>
+        <v>4010.907815393593</v>
       </c>
       <c r="G4">
-        <v>4538.602868462471</v>
+        <v>4508.587730544687</v>
       </c>
       <c r="H4">
-        <v>4913.08416601363</v>
+        <v>4894.925643947024</v>
       </c>
       <c r="I4">
-        <v>5199.595779151944</v>
+        <v>5189.367052090181</v>
       </c>
       <c r="J4">
-        <v>5415.576705391259</v>
+        <v>5410.44869045343</v>
       </c>
       <c r="K4">
-        <v>5576.367566819896</v>
+        <v>5574.377848176196</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -976,31 +976,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2106.426646894214</v>
+        <v>1970.602960242073</v>
       </c>
       <c r="D5">
-        <v>3325.285090188445</v>
+        <v>3155.29413379338</v>
       </c>
       <c r="E5">
-        <v>4308.08462885752</v>
+        <v>4137.929122564142</v>
       </c>
       <c r="F5">
-        <v>5122.69566869137</v>
+        <v>4995.618408575966</v>
       </c>
       <c r="G5">
-        <v>5849.266505294529</v>
+        <v>5757.25369351714</v>
       </c>
       <c r="H5">
-        <v>6477.942014593516</v>
+        <v>6413.52822918964</v>
       </c>
       <c r="I5">
-        <v>7008.167342594349</v>
+        <v>6964.800504819637</v>
       </c>
       <c r="J5">
-        <v>7445.814029792888</v>
+        <v>7417.974179129017</v>
       </c>
       <c r="K5">
-        <v>7800.371626172512</v>
+        <v>7783.618862666976</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1011,31 +1011,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2233.240032297595</v>
+        <v>2077.973079552006</v>
       </c>
       <c r="D6">
-        <v>3682.062182207825</v>
+        <v>3479.163876011592</v>
       </c>
       <c r="E6">
-        <v>4899.182594827255</v>
+        <v>4668.17689432019</v>
       </c>
       <c r="F6">
-        <v>5935.663809828119</v>
+        <v>5704.29771092368</v>
       </c>
       <c r="G6">
-        <v>6805.204417279317</v>
+        <v>6618.699793270846</v>
       </c>
       <c r="H6">
-        <v>7603.276669369487</v>
+        <v>7459.52457528067</v>
       </c>
       <c r="I6">
-        <v>8329.777275718347</v>
+        <v>8222.194082727692</v>
       </c>
       <c r="J6">
-        <v>8975.84632123411</v>
+        <v>8897.882557418838</v>
       </c>
       <c r="K6">
-        <v>9538.327102109994</v>
+        <v>9483.890602280206</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1046,31 +1046,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2306.940410038683</v>
+        <v>2126.821419271082</v>
       </c>
       <c r="D7">
-        <v>3877.306298284876</v>
+        <v>3639.108807855864</v>
       </c>
       <c r="E7">
-        <v>5290.388439860528</v>
+        <v>5020.760291167579</v>
       </c>
       <c r="F7">
-        <v>6511.401974606482</v>
+        <v>6223.952374969725</v>
       </c>
       <c r="G7">
-        <v>7587.041908533415</v>
+        <v>7296.57843021494</v>
       </c>
       <c r="H7">
-        <v>8516.864497439828</v>
+        <v>8253.204047747326</v>
       </c>
       <c r="I7">
-        <v>9354.103736374853</v>
+        <v>9145.526925518077</v>
       </c>
       <c r="J7">
-        <v>10142.71847235892</v>
+        <v>9979.982473069809</v>
       </c>
       <c r="K7">
-        <v>10870.51367699391</v>
+        <v>10746.75960654862</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1081,31 +1081,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2341.195518938094</v>
+        <v>2158.077255577344</v>
       </c>
       <c r="D8">
-        <v>3976.842337075874</v>
+        <v>3718.642491739726</v>
       </c>
       <c r="E8">
-        <v>5524.754404176273</v>
+        <v>5216.627716409261</v>
       </c>
       <c r="F8">
-        <v>6921.225549621509</v>
+        <v>6587.782660538249</v>
       </c>
       <c r="G8">
-        <v>8148.784480033296</v>
+        <v>7807.081756481331</v>
       </c>
       <c r="H8">
-        <v>9253.385034534918</v>
+        <v>8905.469878290281</v>
       </c>
       <c r="I8">
-        <v>10233.97219275887</v>
+        <v>9905.419221926122</v>
       </c>
       <c r="J8">
-        <v>11107.97316696017</v>
+        <v>10834.43590059922</v>
       </c>
       <c r="K8">
-        <v>11937.77408491532</v>
+        <v>11715.987039243</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1116,31 +1116,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2353.422896380524</v>
+        <v>2169.696304129561</v>
       </c>
       <c r="D9">
-        <v>4034.556537818312</v>
+        <v>3756.721312978002</v>
       </c>
       <c r="E9">
-        <v>5656.797629384855</v>
+        <v>5319.904448007763</v>
       </c>
       <c r="F9">
-        <v>7183.442006434278</v>
+        <v>6806.11094021519</v>
       </c>
       <c r="G9">
-        <v>8570.471276611817</v>
+        <v>8173.851333635519</v>
       </c>
       <c r="H9">
-        <v>9804.391663616871</v>
+        <v>9407.964545320099</v>
       </c>
       <c r="I9">
-        <v>10933.17605409141</v>
+        <v>10525.91763217427</v>
       </c>
       <c r="J9">
-        <v>11952.77023376297</v>
+        <v>11561.27828454328</v>
       </c>
       <c r="K9">
-        <v>12872.56063965996</v>
+        <v>12519.91565617456</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1151,31 +1151,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2357.040794592492</v>
+        <v>2173.292289046973</v>
       </c>
       <c r="D10">
-        <v>4064.516536626492</v>
+        <v>3779.036387045206</v>
       </c>
       <c r="E10">
-        <v>5731.386092185261</v>
+        <v>5374.001834499199</v>
       </c>
       <c r="F10">
-        <v>7340.795397193265</v>
+        <v>6930.506226670972</v>
       </c>
       <c r="G10">
-        <v>8852.13120697213</v>
+        <v>8407.517193349559</v>
       </c>
       <c r="H10">
-        <v>10233.52787936557</v>
+        <v>9774.790900078693</v>
       </c>
       <c r="I10">
-        <v>11477.51981159242</v>
+        <v>11021.49950173577</v>
       </c>
       <c r="J10">
-        <v>12624.70214138319</v>
+        <v>12156.43949057436</v>
       </c>
       <c r="K10">
-        <v>13674.64919581334</v>
+        <v>13220.09115122219</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1186,31 +1186,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2357.653278784277</v>
+        <v>2173.95295916765</v>
       </c>
       <c r="D11">
-        <v>4077.149236062035</v>
+        <v>3789.37912201797</v>
       </c>
       <c r="E11">
-        <v>5780.148567352288</v>
+        <v>5402.120985887011</v>
       </c>
       <c r="F11">
-        <v>7435.348435721888</v>
+        <v>6998.649049390877</v>
       </c>
       <c r="G11">
-        <v>9031.152328965969</v>
+        <v>8548.455287445169</v>
       </c>
       <c r="H11">
-        <v>10530.04749586087</v>
+        <v>10019.06323142427</v>
       </c>
       <c r="I11">
-        <v>11908.24330653919</v>
+        <v>11387.39060429249</v>
       </c>
       <c r="J11">
-        <v>13162.36254947985</v>
+        <v>12645.38476938964</v>
       </c>
       <c r="K11">
-        <v>14325.1264048663</v>
+        <v>13799.44499155818</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1221,31 +1221,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2357.318745756168</v>
+        <v>2173.646374687446</v>
       </c>
       <c r="D12">
-        <v>4081.659427989759</v>
+        <v>3793.026518208262</v>
       </c>
       <c r="E12">
-        <v>5804.502259049151</v>
+        <v>5420.218917544775</v>
       </c>
       <c r="F12">
-        <v>7497.711890723311</v>
+        <v>7036.44540617953</v>
       </c>
       <c r="G12">
-        <v>9144.216064502309</v>
+        <v>8630.219920117579</v>
       </c>
       <c r="H12">
-        <v>10727.295115602</v>
+        <v>10173.48439470167</v>
       </c>
       <c r="I12">
-        <v>12216.35651766245</v>
+        <v>11639.50350098169</v>
       </c>
       <c r="J12">
-        <v>13593.33222536908</v>
+        <v>13009.78848631297</v>
       </c>
       <c r="K12">
-        <v>14856.6784264226</v>
+        <v>14277.85176347124</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1256,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2356.712506188905</v>
+        <v>2173.050777639988</v>
       </c>
       <c r="D13">
-        <v>4082.600178467441</v>
+        <v>3793.686083814695</v>
       </c>
       <c r="E13">
-        <v>5815.513042441151</v>
+        <v>5428.175738901027</v>
       </c>
       <c r="F13">
-        <v>7534.922941162162</v>
+        <v>7059.105577537082</v>
       </c>
       <c r="G13">
-        <v>9217.45909637783</v>
+        <v>8677.181408696697</v>
       </c>
       <c r="H13">
-        <v>10855.96035078819</v>
+        <v>10267.22704800208</v>
       </c>
       <c r="I13">
-        <v>12428.51704584441</v>
+        <v>11804.90538378072</v>
       </c>
       <c r="J13">
-        <v>13910.23858673979</v>
+        <v>13267.8159753773</v>
       </c>
       <c r="K13">
-        <v>15287.27378576668</v>
+        <v>14640.59347333741</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1291,31 +1291,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2356.034780030651</v>
+        <v>2172.376343691838</v>
       </c>
       <c r="D14">
-        <v>4082.07183968261</v>
+        <v>3793.08214665677</v>
       </c>
       <c r="E14">
-        <v>5819.597409368161</v>
+        <v>5430.885527863082</v>
       </c>
       <c r="F14">
-        <v>7554.204035841522</v>
+        <v>7072.102979098915</v>
       </c>
       <c r="G14">
-        <v>9267.398292861941</v>
+        <v>8704.073495127368</v>
       </c>
       <c r="H14">
-        <v>10940.21304409759</v>
+        <v>10322.50430068174</v>
       </c>
       <c r="I14">
-        <v>12570.95045580446</v>
+        <v>11908.91520706609</v>
       </c>
       <c r="J14">
-        <v>14134.70667809412</v>
+        <v>13442.18051112877</v>
       </c>
       <c r="K14">
-        <v>15611.02585035198</v>
+        <v>14903.1625113275</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1326,31 +1326,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2355.339701940264</v>
+        <v>2171.682150104058</v>
       </c>
       <c r="D15">
-        <v>4080.977370636841</v>
+        <v>3791.973125319872</v>
       </c>
       <c r="E15">
-        <v>5820.271951542087</v>
+        <v>5430.992412625035</v>
       </c>
       <c r="F15">
-        <v>7563.075891490865</v>
+        <v>7077.682110228586</v>
       </c>
       <c r="G15">
-        <v>9295.814357820966</v>
+        <v>8722.264608713765</v>
       </c>
       <c r="H15">
-        <v>11001.20891968348</v>
+        <v>10355.67308704625</v>
       </c>
       <c r="I15">
-        <v>12667.61142386705</v>
+        <v>11972.58877656014</v>
       </c>
       <c r="J15">
-        <v>14290.05757589924</v>
+        <v>13555.36754409207</v>
       </c>
       <c r="K15">
-        <v>15846.11933632897</v>
+        <v>15085.07317827838</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_EV.xlsx
+++ b/data/output/best_policy_EV.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,230 +594,6 @@
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.6</v>
-      </c>
-      <c r="D8">
-        <v>0.6</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <v>0.6</v>
-      </c>
-      <c r="G8">
-        <v>0.6</v>
-      </c>
-      <c r="H8">
-        <v>0.7</v>
-      </c>
-      <c r="I8">
-        <v>0.7</v>
-      </c>
-      <c r="J8">
-        <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.6</v>
-      </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>0.6</v>
-      </c>
-      <c r="G9">
-        <v>0.6</v>
-      </c>
-      <c r="H9">
-        <v>0.6</v>
-      </c>
-      <c r="I9">
-        <v>0.7</v>
-      </c>
-      <c r="J9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-      <c r="G10">
-        <v>0.6</v>
-      </c>
-      <c r="H10">
-        <v>0.6</v>
-      </c>
-      <c r="I10">
-        <v>0.6</v>
-      </c>
-      <c r="J10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <v>0.6</v>
-      </c>
-      <c r="H11">
-        <v>0.6</v>
-      </c>
-      <c r="I11">
-        <v>0.6</v>
-      </c>
-      <c r="J11">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>0.6</v>
-      </c>
-      <c r="G12">
-        <v>0.6</v>
-      </c>
-      <c r="H12">
-        <v>0.6</v>
-      </c>
-      <c r="I12">
-        <v>0.6</v>
-      </c>
-      <c r="J12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.6</v>
-      </c>
-      <c r="H13">
-        <v>0.6</v>
-      </c>
-      <c r="I13">
-        <v>0.6</v>
-      </c>
-      <c r="J13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.6</v>
-      </c>
-      <c r="H14">
-        <v>0.6</v>
-      </c>
-      <c r="I14">
-        <v>0.6</v>
-      </c>
-      <c r="J14">
-        <v>0.6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,7 +601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1108,251 +884,6 @@
         <v>11715.987039243</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2169.696304129561</v>
-      </c>
-      <c r="D9">
-        <v>3756.721312978002</v>
-      </c>
-      <c r="E9">
-        <v>5319.904448007763</v>
-      </c>
-      <c r="F9">
-        <v>6806.11094021519</v>
-      </c>
-      <c r="G9">
-        <v>8173.851333635519</v>
-      </c>
-      <c r="H9">
-        <v>9407.964545320099</v>
-      </c>
-      <c r="I9">
-        <v>10525.91763217427</v>
-      </c>
-      <c r="J9">
-        <v>11561.27828454328</v>
-      </c>
-      <c r="K9">
-        <v>12519.91565617456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>2173.292289046973</v>
-      </c>
-      <c r="D10">
-        <v>3779.036387045206</v>
-      </c>
-      <c r="E10">
-        <v>5374.001834499199</v>
-      </c>
-      <c r="F10">
-        <v>6930.506226670972</v>
-      </c>
-      <c r="G10">
-        <v>8407.517193349559</v>
-      </c>
-      <c r="H10">
-        <v>9774.790900078693</v>
-      </c>
-      <c r="I10">
-        <v>11021.49950173577</v>
-      </c>
-      <c r="J10">
-        <v>12156.43949057436</v>
-      </c>
-      <c r="K10">
-        <v>13220.09115122219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2173.95295916765</v>
-      </c>
-      <c r="D11">
-        <v>3789.37912201797</v>
-      </c>
-      <c r="E11">
-        <v>5402.120985887011</v>
-      </c>
-      <c r="F11">
-        <v>6998.649049390877</v>
-      </c>
-      <c r="G11">
-        <v>8548.455287445169</v>
-      </c>
-      <c r="H11">
-        <v>10019.06323142427</v>
-      </c>
-      <c r="I11">
-        <v>11387.39060429249</v>
-      </c>
-      <c r="J11">
-        <v>12645.38476938964</v>
-      </c>
-      <c r="K11">
-        <v>13799.44499155818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2173.646374687446</v>
-      </c>
-      <c r="D12">
-        <v>3793.026518208262</v>
-      </c>
-      <c r="E12">
-        <v>5420.218917544775</v>
-      </c>
-      <c r="F12">
-        <v>7036.44540617953</v>
-      </c>
-      <c r="G12">
-        <v>8630.219920117579</v>
-      </c>
-      <c r="H12">
-        <v>10173.48439470167</v>
-      </c>
-      <c r="I12">
-        <v>11639.50350098169</v>
-      </c>
-      <c r="J12">
-        <v>13009.78848631297</v>
-      </c>
-      <c r="K12">
-        <v>14277.85176347124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>2173.050777639988</v>
-      </c>
-      <c r="D13">
-        <v>3793.686083814695</v>
-      </c>
-      <c r="E13">
-        <v>5428.175738901027</v>
-      </c>
-      <c r="F13">
-        <v>7059.105577537082</v>
-      </c>
-      <c r="G13">
-        <v>8677.181408696697</v>
-      </c>
-      <c r="H13">
-        <v>10267.22704800208</v>
-      </c>
-      <c r="I13">
-        <v>11804.90538378072</v>
-      </c>
-      <c r="J13">
-        <v>13267.8159753773</v>
-      </c>
-      <c r="K13">
-        <v>14640.59347333741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>2172.376343691838</v>
-      </c>
-      <c r="D14">
-        <v>3793.08214665677</v>
-      </c>
-      <c r="E14">
-        <v>5430.885527863082</v>
-      </c>
-      <c r="F14">
-        <v>7072.102979098915</v>
-      </c>
-      <c r="G14">
-        <v>8704.073495127368</v>
-      </c>
-      <c r="H14">
-        <v>10322.50430068174</v>
-      </c>
-      <c r="I14">
-        <v>11908.91520706609</v>
-      </c>
-      <c r="J14">
-        <v>13442.18051112877</v>
-      </c>
-      <c r="K14">
-        <v>14903.1625113275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>2171.682150104058</v>
-      </c>
-      <c r="D15">
-        <v>3791.973125319872</v>
-      </c>
-      <c r="E15">
-        <v>5430.992412625035</v>
-      </c>
-      <c r="F15">
-        <v>7077.682110228586</v>
-      </c>
-      <c r="G15">
-        <v>8722.264608713765</v>
-      </c>
-      <c r="H15">
-        <v>10355.67308704625</v>
-      </c>
-      <c r="I15">
-        <v>11972.58877656014</v>
-      </c>
-      <c r="J15">
-        <v>13555.36754409207</v>
-      </c>
-      <c r="K15">
-        <v>15085.07317827838</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
